--- a/SQL - CIS2 2024/1-INOV/New folder/Tabel-Tab.1_Bunuri_Servicii noi sau imbunatatite.xlsx
+++ b/SQL - CIS2 2024/1-INOV/New folder/Tabel-Tab.1_Bunuri_Servicii noi sau imbunatatite.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Nr. 1 - INOV\SQL - CIS2 2024\1-INOV\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5E7E7B-3020-4EF3-A70F-99F9318B4DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DC346D-B8DD-490F-8F94-D2D5D9BF4F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1_1_Tab.1_CAEM2" sheetId="1" r:id="rId1"/>
@@ -3345,8 +3345,8 @@
   <dimension ref="A1:J402"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A391" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7:A402"/>
+      <pane ySplit="6" topLeftCell="A370" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9846,7 +9846,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:A396"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -11845,8 +11845,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B13:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12087,8 +12087,8 @@
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
